--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
@@ -1,118 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Energy_20250327\ndc_cr_30\t1_confection\A2_Extra_Inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6E580C-6717-43F9-BED9-39AC7E041650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GHGs" sheetId="1" r:id="rId1"/>
-    <sheet name="Externalities" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GHGs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Externalities" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GHGs!$A$1:$C$2</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>External Cost</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>EmissionActivityRatio</t>
-  </si>
-  <si>
-    <t>Final Unit</t>
-  </si>
-  <si>
-    <t>Emission</t>
-  </si>
-  <si>
-    <t>EmissionsPenalty</t>
-  </si>
-  <si>
-    <t>CO2e_PWR</t>
-  </si>
-  <si>
-    <t>PWRFOI</t>
-  </si>
-  <si>
-    <t>MtCO2eq/PJ</t>
-  </si>
-  <si>
-    <t>Dato RD</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,40 +166,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -521,48 +453,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="28.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="36.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
+    <row r="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Emission</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EmissionActivityRatio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PWRCCGCRIXX00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1283</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PWRCCGCRIXX01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1006</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PWRCCSCRIXX01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PWRCOACRIXX01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PWRCOGCRIXX01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PWROCGCRIXX00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PWROCGCRIXX01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PWROILCRIXX01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2021</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PWROTHCRIXX01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PWRPETCRIXX01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PWRWASCRIXX01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -571,287 +721,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35B896B-BFBE-403F-A891-C25041EF70AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col width="12" bestFit="1" customWidth="1" min="1" max="2"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
+    <row r="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>External Cost</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>EmissionActivityRatio</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>EmissionsPenalty</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Final Unit</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="48eed89a-7418-4977-ae3a-838f0fac8ec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="416d42ac-85ec-40c4-8054-6c816fd4b6a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341064803B07E4F8A0204BD36BE6D07" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75815dbc30d6e2c2c6f7db4084dd8576">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48eed89a-7418-4977-ae3a-838f0fac8ec5" xmlns:ns3="416d42ac-85ec-40c4-8054-6c816fd4b6a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62d034e6bb04b5aaada07dd500b11312" ns2:_="" ns3:_="">
-    <xsd:import namespace="48eed89a-7418-4977-ae3a-838f0fac8ec5"/>
-    <xsd:import namespace="416d42ac-85ec-40c4-8054-6c816fd4b6a7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="48eed89a-7418-4977-ae3a-838f0fac8ec5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="416d42ac-85ec-40c4-8054-6c816fd4b6a7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f2f505f1-ba8b-4e5d-ab63-2b0077c99565}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="416d42ac-85ec-40c4-8054-6c816fd4b6a7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFB2CC7-4028-40CF-B585-77900DA351B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d55314f-45f1-40c9-9fce-63556e193d03"/>
-    <ds:schemaRef ds:uri="48eed89a-7418-4977-ae3a-838f0fac8ec5"/>
-    <ds:schemaRef ds:uri="416d42ac-85ec-40c4-8054-6c816fd4b6a7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A69440-6518-4501-9B50-8177BEEDEFE8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F79AB8-49D9-484F-991A-27FAE0E62C64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="A2:E2"/>
@@ -538,16 +538,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PWRCCSCRIXX01</t>
+          <t>PWRCCGPANXX00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0273</v>
+        <v>0.1232</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -558,16 +558,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PWRCOACRIXX01</t>
+          <t>PWRCCGPANXX01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2724</v>
+        <v>0.1006</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PWRCOGCRIXX01</t>
+          <t>PWRCCSCRIXX01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2724</v>
+        <v>0.0273</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -598,16 +598,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX00</t>
+          <t>PWRCCSPANXX01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1504</v>
+        <v>0.0273</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX01</t>
+          <t>PWRCOACRIXX01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1437</v>
+        <v>0.2724</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -638,16 +638,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PWROILCRIXX01</t>
+          <t>PWRCOAPANXX01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2021</v>
+        <v>0.2771</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PWROTHCRIXX01</t>
+          <t>PWRCOGCRIXX01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0503</v>
+        <v>0.2724</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -678,16 +678,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PWRPETCRIXX01</t>
+          <t>PWRCOGPANXX01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.217</v>
+        <v>0.2724</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -698,18 +698,238 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>PWROCGCRIXX00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PWROCGCRIXX01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PWROCGPANXX00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PWROCGPANXX01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PWROILCRIXX01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2021</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PWROILPANXX01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PWROTHCRIXX01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PWROTHPANXX01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PWRPETCRIXX01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PWRPETPANXX01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>PWRWASCRIXX01</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>0.08790000000000001</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MtCO2eq/PJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PWRWASPANXX01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MtCO2eq/PJ</t>
         </is>

--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GHGs" sheetId="1" state="visible" r:id="rId1"/>
@@ -67,7 +67,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -98,37 +98,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -138,27 +107,44 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -168,20 +154,20 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,485 +444,1018 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="28.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="36.5703125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="19.7109375" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="19" customWidth="1" style="4" min="2" max="2"/>
+    <col width="28.7109375" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="36.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" ht="15.75" customHeight="1" s="4" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Mode_Of_Operation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Tech</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Emission</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>EmissionActivityRatio</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>PWRCCGCRIXX00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.1283</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MT</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PWRCCGCRIXX00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1283</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>PWRCCGCRIXX01</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.1006</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PWRCCGCRIXX01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1006</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>PWRCCGPANXX00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.1232</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PWRCCGPANXX00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>PWRCCGPANXX01</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.1006</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PWRCCGPANXX01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1006</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>PWRCCSCRIXX01</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.0273</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PWRCCSCRIXX01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>PWRCCSPANXX01</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>0.0273</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PWRCCSPANXX01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>PWRCOACRIXX01</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0.2724</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PWRCOACRIXX01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>PWRCOAPANXX01</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>0.2771</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PWRCOAPANXX01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2771</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>PWRCOGCRIXX01</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>0.2724</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PWRCOGCRIXX01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>PWRCOGPANXX01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0.2724</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PWRCOGPANXX01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>PWROCGCRIXX00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>0.1504</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PWROCGCRIXX00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>PWROCGCRIXX01</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>0.1437</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PWROCGCRIXX01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>PWROCGPANXX00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>0.1504</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PWROCGPANXX00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>PWROCGPANXX01</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>0.1437</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PWROCGPANXX01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>PWROILCRIXX01</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>0.2021</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PWROILCRIXX01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2021</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>PWROILPANXX01</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>0.2077</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PWROILPANXX01</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>PWROTHCRIXX01</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>0.0503</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PWROTHCRIXX01</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>PWROTHPANXX01</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>0.0503</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PWROTHPANXX01</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>PWRPETCRIXX01</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>0.217</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PWRPETCRIXX01</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>PWRPETPANXX01</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>0.217</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PWRPETPANXX01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>PWRWASCRIXX01</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>0.08790000000000001</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>PWRWASPANXX01</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CO2PAN</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>0.08790000000000001</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>MtCO2eq/PJ</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MT</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
 </file>
 
@@ -955,35 +1474,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="12" bestFit="1" customWidth="1" min="1" max="2"/>
-    <col width="19.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="12" bestFit="1" customWidth="1" style="4" min="1" max="2"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="16.140625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="4" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Tech</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>External Cost</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>EmissionActivityRatio</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>EmissionsPenalty</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Final Unit</t>
         </is>

--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
@@ -583,16 +583,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PWRCCSCRIXX01</t>
+          <t>PWRCCGPANXX00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0273</v>
+        <v>0.1232</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PWRCCSCRIXX01</t>
+          <t>PWRCCGPANXX00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.0273</v>
+        <v>0.1232</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,16 +629,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PWRCOACRIXX01</t>
+          <t>PWRCCGPANXX01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2724</v>
+        <v>0.1006</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -652,16 +652,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PWRCOACRIXX01</t>
+          <t>PWRCCGPANXX01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2724</v>
+        <v>0.1006</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PWRCOGCRIXX01</t>
+          <t>PWRCCSCRIXX01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2724</v>
+        <v>0.0273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PWRCOGCRIXX01</t>
+          <t>PWRCCSCRIXX01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2724</v>
+        <v>0.0273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -721,16 +721,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX00</t>
+          <t>PWRCCSPANXX01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.1504</v>
+        <v>0.0273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -744,16 +744,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX00</t>
+          <t>PWRCCSPANXX01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.1504</v>
+        <v>0.0273</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX01</t>
+          <t>PWRCOACRIXX01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1437</v>
+        <v>0.2724</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX01</t>
+          <t>PWRCOACRIXX01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1437</v>
+        <v>0.2724</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -813,16 +813,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PWROILCRIXX01</t>
+          <t>PWRCOAPANXX01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2021</v>
+        <v>0.2771</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -836,16 +836,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PWROILCRIXX01</t>
+          <t>PWRCOAPANXX01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2021</v>
+        <v>0.2771</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PWROTHCRIXX01</t>
+          <t>PWRCOGCRIXX01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0503</v>
+        <v>0.2724</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PWROTHCRIXX01</t>
+          <t>PWRCOGCRIXX01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0503</v>
+        <v>0.2724</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -905,16 +905,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PWRPETCRIXX01</t>
+          <t>PWRCOGPANXX01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.217</v>
+        <v>0.2724</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -928,16 +928,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PWRPETCRIXX01</t>
+          <t>PWRCOGPANXX01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CO2CRI</t>
+          <t>CO2PAN</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.217</v>
+        <v>0.2724</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -951,18 +951,501 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>PWROCGCRIXX00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PWROCGCRIXX00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PWROCGCRIXX01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PWROCGCRIXX01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PWROCGPANXX00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PWROCGPANXX00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PWROCGPANXX01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PWROCGPANXX01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PWROILCRIXX01</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2021</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PWROILCRIXX01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2021</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PWROILPANXX01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PWROILPANXX01</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PWROTHCRIXX01</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PWROTHCRIXX01</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PWROTHPANXX01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PWROTHPANXX01</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PWRPETCRIXX01</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PWRPETCRIXX01</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PWRPETPANXX01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PWRPETPANXX01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>PWRWASCRIXX01</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CO2CRI</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>0.08790000000000001</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PWRWASPANXX01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CO2PAN</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
@@ -981,7 +1464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1036,16 +1519,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CO2CRI</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
